--- a/hausaufgabe_1/KM184.xlsx
+++ b/hausaufgabe_1/KM184.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjueterb/tubCloud/_Audiokommunikation/Audiotechnik SS 2024/Elektroakustik SoSe 2024/Hausaufgaben/source/Hausaufgabe 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\OneDrive - Univerza v Ljubljani\Documents\FAKS\6_Sem\Elektroakustik\Elektroakustik-SoSe2025-GruppeN\hausaufgabe_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AD6F53-30C7-F64F-B587-C1B0102FEB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527AA7BF-6993-479C-BC8C-E5E1A4422A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KM184" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -520,9 +520,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -638,7 +638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>40</v>
       </c>
@@ -754,7 +754,7 @@
         <v>-1.1200000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>41.9</v>
       </c>
@@ -870,7 +870,7 @@
         <v>-1.59</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>43.89</v>
       </c>
@@ -986,7 +986,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>45.97</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>48.15</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50.44</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>52.83</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>55.34</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>57.97</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>60.72</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>63.6</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>66.62</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>69.78</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>73.099999999999994</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>76.569999999999993</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>80.2</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>84.01</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>88</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>92.17</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>-4.7699999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>96.55</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>-7.19</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>101.13</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>-1.74</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>105.93</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>-1.68</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>110.96</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>-3.52</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>116.23</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>121.75</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>-5.08</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>127.53</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>-4.87</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>133.58000000000001</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>-4.4400000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>139.91999999999999</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>-5.36</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>146.56</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>-7.31</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>153.52000000000001</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>-8.77</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>160.81</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>168.44</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>-6.04</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>176.44</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>-7.29</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>184.81</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>-11.6</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>193.59</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>-10.96</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>202.78</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>-7.63</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>212.4</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>-9.44</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>222.48</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>-24.74</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>233.05</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>-10.44</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>244.11</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>-7.04</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>255.7</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>-12.02</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>267.83</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>-16.46</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>280.55</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>-7.9</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>293.87</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>307.82</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>-12.51</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>322.43</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>-7.32</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>337.73</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>-22.08</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>353.77</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>-8.7899999999999991</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>370.56</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>-13.97</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>388.15</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>-11.26</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>406.57</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>-9.92</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>425.87</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>-21.72</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>446.09</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>-21.17</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>467.27</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>-10.79</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>489.45</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>-21.02</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>512.67999999999995</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>-13.51</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>537.02</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>-15.43</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>562.51</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>-14.33</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>589.21</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>-25.55</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>617.17999999999995</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>-14.73</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>646.48</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>-18.920000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>677.17</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>-18.03</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>709.31</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>-24.17</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>742.99</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>-17.04</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>778.26</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>-14.77</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>815.2</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>-15.25</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>853.9</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>-16.329999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>894.43</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>-18.420000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>936.89</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>-17.100000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>981.36</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>-22.91</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1027.95</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>-14.33</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1076.75</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>-10.36</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1127.8599999999999</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>-15.3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1181.4000000000001</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>-22.11</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1237.48</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>-24.23</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1296.22</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>-14.36</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1357.75</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>-20.66</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1422.21</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>-21.63</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1489.72</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>-16.38</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1560.44</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>-18.13</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1634.51</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>-19.239999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1712.1</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>-19.11</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1793.37</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>-12.91</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1878.5</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>-15.63</v>
       </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1967.68</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>-22.31</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2061.08</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>-18.88</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2158.92</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>-20.98</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2261.41</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>-15.29</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2368.7600000000002</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>-35.840000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2481.1999999999998</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>-24.43</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2598.98</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>-23.77</v>
       </c>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2722.36</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>-22.57</v>
       </c>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2851.59</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>-17.47</v>
       </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2986.95</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>-20.89</v>
       </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3128.74</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3277.26</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>-12.3</v>
       </c>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3432.84</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>-14.02</v>
       </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3595.79</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>-16.649999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3766.48</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>-18.2</v>
       </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3945.28</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>-18.91</v>
       </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4132.5600000000004</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>-19.739999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4328.7299999999996</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>-15.26</v>
       </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4534.22</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>-15.01</v>
       </c>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4749.46</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>-12.21</v>
       </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4974.92</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>-17.239999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5211.07</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>-16.510000000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5458.44</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>-16.100000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>5717.56</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>-10.26</v>
       </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5988.97</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>-17.920000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>6273.27</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>-14.62</v>
       </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6571.06</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>-15.42</v>
       </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6882.99</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>-25.84</v>
       </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>7209.72</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>-10.86</v>
       </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7551.97</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>-9.26</v>
       </c>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>7910.46</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>-10.54</v>
       </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>8285.9699999999993</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>-3.36</v>
       </c>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>8679.2999999999993</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>9091.31</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>9522.8700000000008</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>-1.1599999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>9974.92</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>-0.86</v>
       </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>10448.43</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>10944.42</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>11463.95</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>12008.15</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>12578.17</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>-1.97</v>
       </c>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>13175.26</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>-2.74</v>
       </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>13800.69</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>-3.68</v>
       </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>14455.81</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>-3.95</v>
       </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>15142.02</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>-4.62</v>
       </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>15860.82</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>-4.76</v>
       </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>16613.73</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>-4.34</v>
       </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>17402.38</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>-5.01</v>
       </c>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>18228.47</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>-5.86</v>
       </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>19093.78</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>-7.2</v>
       </c>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>20000.16</v>
       </c>
